--- a/Documentation/GanttChartSprint2.xlsx
+++ b/Documentation/GanttChartSprint2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Plan</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Project Planner Sprint 2</t>
+  </si>
+  <si>
+    <t>Add to Client course info page link to choose course, login popup if not logged in</t>
   </si>
 </sst>
 </file>
@@ -911,13 +914,13 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="69.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.125" style="2" customWidth="1"/>
     <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
@@ -1396,12 +1399,20 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="18">
+        <v>7</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
@@ -1564,7 +1575,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/Documentation/GanttChartSprint2.xlsx
+++ b/Documentation/GanttChartSprint2.xlsx
@@ -914,7 +914,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1248,10 +1248,14 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
       <c r="G9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1264,10 +1268,14 @@
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,10 +1304,14 @@
       <c r="D12" s="16">
         <v>8</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5</v>
+      </c>
       <c r="G12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,10 +1324,12 @@
       <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>6</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
